--- a/showcase/Showcase_Storyboard.xlsx
+++ b/showcase/Showcase_Storyboard.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_Bachelor\03_Informatik\08_Einführung ins Software Engineering\03_Projekt\Showcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Storyboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Storyboard!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Storyboard!$A$1:$G$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Storyboard!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -693,6 +693,183 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Offer Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ad Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proprety type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radius:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Max. Price:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earlist Move-in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New bid:</t>
+    </r>
+  </si>
+  <si>
+    <t>3000 - Bern
+Buy
+Auction and Ad
+Studio
+10
+500'000 CHF
+31.12.2016
+130'000 CHF</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">
 Studio</t>
     </r>
@@ -717,264 +894,15 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Buy
-Alpenstrasse 35
-2540 - Grenchen
+Schanzeneckstrasse 1
+3012 - Bern
 490'000 CHF
 155 m2
 20.12.2016 12:30
 31.12.2016
-Wunderful studio in Grenchen
+Wunderful studio in Bern!
 Close to the train-station.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3000 - Bern
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Buy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Auction and Ad
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Studio
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">500'000 CHF
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">31.12.2016
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>350'000 CHF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Offer Type: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ad Type: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proprety type:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Radius:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Max. Price:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Earlist Move-in:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New bid:</t>
     </r>
   </si>
 </sst>
@@ -1731,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>43</v>
@@ -1896,7 +1824,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>27</v>
@@ -1936,6 +1864,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/showcase/Showcase_Storyboard.xlsx
+++ b/showcase/Showcase_Storyboard.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Storyboard" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Storyboard!$A$1:$G$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Storyboard!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -405,6 +405,491 @@
 Visiting Times:</t>
   </si>
   <si>
+    <r>
+      <t>Hauptstrasse 32</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3012 - Bern
+I'm a nuclear engineer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Street:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+City:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>About:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create alert with the search from task 4.
+Then an other user has to create the following auction:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proprety type:
+Offer Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Address:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rent:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auction End:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earlist Move-in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Room Desc.:
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>City:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Offer Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ad Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proprety type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radius:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Max. Price:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Earlist Move-in:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New bid:</t>
+    </r>
+  </si>
+  <si>
+    <t>3000 - Bern
+Buy
+Auction and Ad
+Studio
+10
+500'000 CHF
+31.12.2016
+130'000 CHF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Studio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Buy
+Schanzeneckstrasse 1
+3012 - Bern
+490'000 CHF
+155 m2
+20.12.2016 12:30
+31.12.2016
+Wunderful studio in Bern!
+Close to the train-station.
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">
 Room
 Rent
@@ -415,501 +900,16 @@
 31.12.2016
 Smoking allowed, Cable TV, Garage
 Beautiful room in the old town of Solothurn
-First apartement of Bart Simpson!
+Old apartement of Homer Simpson!
 20.12.2016  14:00 - 15:00
 23.12.2016  09:00 - 09:30
 </t>
-  </si>
-  <si>
-    <r>
-      <t>Hauptstrasse 32</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3012 - Bern
-I'm a nuclear engineer.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Street:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-City:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>About:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create alert with the search from task 4.
-Then an other user has to create the following auction:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proprety type:
-Offer Type:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Address:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rent:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Space:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Auction End:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Earlist Move-in:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Title:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Room Desc.:
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>City:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Offer Type: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ad Type: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proprety type:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Radius:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Max. Price:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Earlist Move-in:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New bid:</t>
-    </r>
-  </si>
-  <si>
-    <t>3000 - Bern
-Buy
-Auction and Ad
-Studio
-10
-500'000 CHF
-31.12.2016
-130'000 CHF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Studio</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Buy
-Schanzeneckstrasse 1
-3012 - Bern
-490'000 CHF
-155 m2
-20.12.2016 12:30
-31.12.2016
-Wunderful studio in Bern!
-Close to the train-station.
-</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1660,7 +1660,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,7 +1734,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1754,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -1777,10 +1777,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1821,10 +1821,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>27</v>
@@ -1864,6 +1864,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="40" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>